--- a/mySQL/querry_comparisson.xlsx
+++ b/mySQL/querry_comparisson.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matjaz Moser\Dropbox\SABANCI\summer project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matjaz Moser\Dropbox\SABANCI\summer project\recipes_visalisation\mySQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
   <si>
     <t>Cypher</t>
   </si>
@@ -45,6 +45,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -136,11 +139,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -150,6 +179,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="N19" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28:AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +487,7 @@
     <col min="8" max="8" width="5.42578125" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
     <col min="14" max="14" width="5.85546875" customWidth="1"/>
@@ -456,19 +495,23 @@
     <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.28515625" customWidth="1"/>
     <col min="18" max="18" width="5.42578125" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" customWidth="1"/>
     <col min="21" max="21" width="6.85546875" customWidth="1"/>
     <col min="22" max="22" width="6" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" customWidth="1"/>
+    <col min="27" max="27" width="6" customWidth="1"/>
     <col min="28" max="28" width="6.85546875" customWidth="1"/>
-    <col min="29" max="29" width="6.5703125" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" customWidth="1"/>
     <col min="30" max="30" width="6.7109375" customWidth="1"/>
+    <col min="31" max="31" width="5.42578125" customWidth="1"/>
+    <col min="32" max="32" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1</v>
@@ -506,8 +549,12 @@
         <v>9</v>
       </c>
       <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T1" s="2">
+        <v>10</v>
+      </c>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -563,8 +610,14 @@
       <c r="S2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -622,8 +675,10 @@
       <c r="S3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -681,8 +736,10 @@
       <c r="S4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -740,8 +797,10 @@
       <c r="S5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -799,8 +858,10 @@
       <c r="S6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -858,8 +919,10 @@
       <c r="S7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -917,8 +980,10 @@
       <c r="S8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -976,8 +1041,10 @@
       <c r="S9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1035,8 +1102,10 @@
       <c r="S10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1094,8 +1163,10 @@
       <c r="S11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1153,8 +1224,10 @@
       <c r="S12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1230,115 +1303,1639 @@
         <f>AVERAGE(S3:S12)*1000</f>
         <v>0</v>
       </c>
-      <c r="V13" s="5">
+      <c r="T13" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="W13" s="5">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2">
         <v>2</v>
       </c>
-      <c r="X13" s="5">
+      <c r="E15" s="3"/>
+      <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="G15" s="3"/>
+      <c r="H15" s="2">
         <v>4</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="I15" s="3"/>
+      <c r="J15" s="2">
         <v>5</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="K15" s="3"/>
+      <c r="L15" s="2">
         <v>6</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="M15" s="3"/>
+      <c r="N15" s="2">
         <v>7</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="O15" s="3"/>
+      <c r="P15" s="2">
         <v>8</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="U14" s="8" t="s">
+      <c r="S15" s="3"/>
+      <c r="T15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>100</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4140</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5.1726999999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <v>38</v>
+      </c>
+      <c r="G17" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H17" s="5">
+        <v>98</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J17" s="5">
+        <v>7858</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>6595</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5.8882399999999997</v>
+      </c>
+      <c r="N17" s="5">
+        <v>18810</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>11.02</v>
+      </c>
+      <c r="R17" s="5">
+        <v>7605</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
+        <v>504</v>
+      </c>
+      <c r="U17" s="5">
+        <v>3.8134999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>84</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4309</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5.3688000000000002</v>
+      </c>
+      <c r="F18" s="5">
+        <v>35</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H18" s="5">
+        <v>98</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="J18" s="5">
+        <v>8773</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>7545</v>
+      </c>
+      <c r="M18" s="5">
+        <v>5.0801999999999996</v>
+      </c>
+      <c r="N18" s="5">
+        <v>17962</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>10.62</v>
+      </c>
+      <c r="R18" s="5">
+        <v>7494</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <v>469</v>
+      </c>
+      <c r="U18" s="5">
+        <v>3.5888900000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="V14" s="8">
+      <c r="B19" s="5">
+        <v>92</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4079</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5.2462</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43</v>
+      </c>
+      <c r="G19" s="5">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H19" s="5">
+        <v>80</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J19" s="5">
+        <v>7607</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>6453</v>
+      </c>
+      <c r="M19" s="5">
+        <v>5.0763999999999996</v>
+      </c>
+      <c r="N19" s="5">
+        <v>17860</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="R19" s="5">
+        <v>8047</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>511</v>
+      </c>
+      <c r="U19" s="5">
+        <v>3.9159000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <v>106</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4026</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5.2028999999999996</v>
+      </c>
+      <c r="F20" s="5">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H20" s="5">
+        <v>85</v>
+      </c>
+      <c r="I20" s="5">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J20" s="5">
+        <v>8652</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>6683</v>
+      </c>
+      <c r="M20" s="5">
+        <v>5.0682</v>
+      </c>
+      <c r="N20" s="5">
+        <v>18257</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="R20" s="5">
+        <v>7457</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0</v>
+      </c>
+      <c r="T20" s="5">
+        <v>459</v>
+      </c>
+      <c r="U20" s="5">
+        <v>3.9632000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4103</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5.3480999999999996</v>
+      </c>
+      <c r="F21" s="5">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H21" s="5">
+        <v>70</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J21" s="5">
+        <v>7374</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>6541</v>
+      </c>
+      <c r="M21" s="5">
+        <v>5.0648999999999997</v>
+      </c>
+      <c r="N21" s="5">
+        <v>18407</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>9.48</v>
+      </c>
+      <c r="R21" s="5">
+        <v>7265</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5">
+        <v>480</v>
+      </c>
+      <c r="U21" s="5">
+        <v>3.7143999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5">
+        <v>94</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3884</v>
+      </c>
+      <c r="E22" s="5">
+        <v>5.4108999999999998</v>
+      </c>
+      <c r="F22" s="5">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H22" s="5">
+        <v>82</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J22" s="5">
+        <v>7611</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>7426</v>
+      </c>
+      <c r="M22" s="5">
+        <v>4.9988999999999999</v>
+      </c>
+      <c r="N22" s="5">
+        <v>18300</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="R22" s="5">
+        <v>7338</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <v>495</v>
+      </c>
+      <c r="U22" s="5">
+        <v>3.7524999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5">
+        <v>156</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3844</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5.2670000000000003</v>
+      </c>
+      <c r="F23" s="5">
+        <v>41</v>
+      </c>
+      <c r="G23" s="5">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H23" s="5">
+        <v>88</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J23" s="5">
+        <v>8417</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>6725</v>
+      </c>
+      <c r="M23" s="5">
+        <v>5.0183</v>
+      </c>
+      <c r="N23" s="5">
+        <v>18161</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>9.65</v>
+      </c>
+      <c r="R23" s="5">
+        <v>8132</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <v>505</v>
+      </c>
+      <c r="U23" s="5">
+        <v>3.8816000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>135</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3924</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5.3872</v>
+      </c>
+      <c r="F24" s="5">
+        <v>33</v>
+      </c>
+      <c r="G24" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H24" s="5">
+        <v>60</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J24" s="5">
+        <v>7629</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>6649</v>
+      </c>
+      <c r="M24" s="5">
+        <v>4.9576000000000002</v>
+      </c>
+      <c r="N24" s="5">
+        <v>18154</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>9.59</v>
+      </c>
+      <c r="R24" s="5">
+        <v>7324</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
+        <v>469</v>
+      </c>
+      <c r="U24" s="5">
+        <v>4.2430000000000003</v>
+      </c>
+      <c r="W24" s="14"/>
+      <c r="X24" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>6</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>7</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>8</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>102</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3898</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5.3097000000000003</v>
+      </c>
+      <c r="F25" s="5">
+        <v>34</v>
+      </c>
+      <c r="G25" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H25" s="5">
+        <v>81</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="J25" s="5">
+        <v>7567</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>6619</v>
+      </c>
+      <c r="M25" s="5">
+        <v>4.9720000000000004</v>
+      </c>
+      <c r="N25" s="5">
+        <v>17832</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>9.51</v>
+      </c>
+      <c r="R25" s="5">
+        <v>7344</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
+        <v>761</v>
+      </c>
+      <c r="U25" s="5">
+        <v>3.8647999999999998</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X25" s="8">
         <f>AVERAGE(C3:C12)*1000</f>
         <v>14.900000000000002</v>
       </c>
-      <c r="W14" s="8">
+      <c r="Y25" s="8">
         <f>AVERAGE(E3:E12)*1000</f>
         <v>8387.1099999999988</v>
       </c>
-      <c r="X14" s="8">
+      <c r="Z25" s="8">
         <f>AVERAGE(G3:G12)*1000</f>
         <v>6.2399999999999993</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="AA25" s="8">
         <f>AVERAGEA(I3:I12)*1000</f>
         <v>3.0700000000000003</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="AB25" s="8">
         <f>AVERAGE(K3:K12)*1000</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="8">
+      <c r="AC25" s="8">
         <f>AVERAGE(M3:M12)*1000</f>
         <v>6641.96</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AD25" s="8">
         <f>AVERAGE(O3:O12)*1000</f>
         <v>46</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AE25" s="8">
         <f>AVERAGE(Q3:Q12)*1000</f>
         <v>16960</v>
       </c>
-      <c r="AD14" s="8">
+      <c r="AF25" s="8">
         <f>AVERAGE(S3:S12)*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="U15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="8">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5">
+        <v>78</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4072</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5.2541000000000002</v>
+      </c>
+      <c r="F26" s="5">
+        <v>42</v>
+      </c>
+      <c r="G26" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H26" s="5">
+        <v>68</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="J26" s="5">
+        <v>8301</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>7618</v>
+      </c>
+      <c r="M26" s="5">
+        <v>4.9619</v>
+      </c>
+      <c r="N26" s="5">
+        <v>18068</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="R26" s="5">
+        <v>7335</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
+        <v>466</v>
+      </c>
+      <c r="U26" s="5">
+        <v>3.6838000000000002</v>
+      </c>
+      <c r="W26" s="3"/>
+      <c r="X26" s="8">
         <f>AVERAGE(B3:B12)</f>
         <v>106.9</v>
       </c>
-      <c r="W15" s="8">
+      <c r="Y26" s="8">
         <f>AVERAGE(D3:D12)</f>
         <v>4765.2</v>
       </c>
-      <c r="X15" s="8">
+      <c r="Z26" s="8">
         <f>AVERAGE(F3:F12)</f>
         <v>32.4</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="AA26" s="8">
         <f>AVERAGE(H3:H12)</f>
         <v>42</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="AB26" s="8">
         <f>AVERAGE(J3:J12)</f>
         <v>9941.6</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AC26" s="8">
         <f>AVERAGE(L3:L12)</f>
         <v>7103.7</v>
       </c>
-      <c r="AB15" s="8">
+      <c r="AD26" s="8">
         <f>AVERAGE(N3:N12)</f>
         <v>21666.7</v>
       </c>
-      <c r="AC15" s="8">
+      <c r="AE26" s="8">
         <f>AVERAGE(P3:P12)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="8">
+      <c r="AF26" s="8">
         <f>AVERAGE(R3:R12)</f>
         <v>10596.2</v>
       </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="7">
+        <f>AVERAGE(B17:B26)</f>
+        <v>103.5</v>
+      </c>
+      <c r="C27" s="7">
+        <f>AVERAGE(C17:C26)*1000</f>
+        <v>14.170000000000002</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" ref="C27:U27" si="1">AVERAGE(D17:D26)</f>
+        <v>4027.9</v>
+      </c>
+      <c r="E27" s="7">
+        <f>AVERAGE(E17:E26)*1000</f>
+        <v>5296.7600000000011</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="1"/>
+        <v>38.4</v>
+      </c>
+      <c r="G27" s="7">
+        <f>AVERAGE(G17:G26)*1000</f>
+        <v>0.84</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="I27" s="7">
+        <f>AVERAGE(I17:I26)*1000</f>
+        <v>3.13</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="1"/>
+        <v>7978.9</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="1"/>
+        <v>6885.4</v>
+      </c>
+      <c r="M27" s="7">
+        <f>AVERAGE(M17:M26)*1000</f>
+        <v>5108.6639999999989</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="1"/>
+        <v>18181.099999999999</v>
+      </c>
+      <c r="O27" s="7">
+        <f>AVERAGE(O17:O26)*1000</f>
+        <v>43</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <f>AVERAGE(Q17:Q26)*1000</f>
+        <v>9726</v>
+      </c>
+      <c r="R27" s="7">
+        <f t="shared" si="1"/>
+        <v>7534.1</v>
+      </c>
+      <c r="S27" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <f t="shared" si="1"/>
+        <v>511.9</v>
+      </c>
+      <c r="U27" s="7">
+        <f>AVERAGE(U17:U26)*1000</f>
+        <v>3842.1590000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="W28" s="14"/>
+      <c r="X28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>6</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>7</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>8</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>9</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="W29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="8">
+        <f>C27</f>
+        <v>14.170000000000002</v>
+      </c>
+      <c r="Y29" s="8">
+        <f>E27</f>
+        <v>5296.7600000000011</v>
+      </c>
+      <c r="Z29" s="8">
+        <f>G27</f>
+        <v>0.84</v>
+      </c>
+      <c r="AA29" s="8">
+        <f>I27</f>
+        <v>3.13</v>
+      </c>
+      <c r="AB29" s="8">
+        <f>K27</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="8">
+        <f>M27</f>
+        <v>5108.6639999999989</v>
+      </c>
+      <c r="AD29" s="8">
+        <f>O27</f>
+        <v>43</v>
+      </c>
+      <c r="AE29" s="8">
+        <f>Q27</f>
+        <v>9726</v>
+      </c>
+      <c r="AF29" s="8">
+        <f>S27</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="8">
+        <f>U27</f>
+        <v>3842.1590000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="W30" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="X30" s="12">
+        <f>B27</f>
+        <v>103.5</v>
+      </c>
+      <c r="Y30" s="8">
+        <f>D27</f>
+        <v>4027.9</v>
+      </c>
+      <c r="Z30" s="8">
+        <f>F27</f>
+        <v>38.4</v>
+      </c>
+      <c r="AA30" s="8">
+        <f>H27</f>
+        <v>81</v>
+      </c>
+      <c r="AB30" s="8">
+        <f>J27</f>
+        <v>7978.9</v>
+      </c>
+      <c r="AC30" s="8">
+        <f>L27</f>
+        <v>6885.4</v>
+      </c>
+      <c r="AD30" s="8">
+        <f>N27</f>
+        <v>18181.099999999999</v>
+      </c>
+      <c r="AE30" s="8">
+        <f>P27</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
+        <f>R27</f>
+        <v>7534.1</v>
+      </c>
+      <c r="AG30" s="8">
+        <f>T27</f>
+        <v>511.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
